--- a/forms/app/newborn_followup.xlsx
+++ b/forms/app/newborn_followup.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="362">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -150,6 +150,9 @@
     <t xml:space="preserve">contact</t>
   </si>
   <si>
+    <t xml:space="preserve">NO_LABEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">db:person</t>
   </si>
   <si>
@@ -381,7 +384,7 @@
     <t xml:space="preserve">Quelle est la tâche à effectuer?</t>
   </si>
   <si>
-    <t xml:space="preserve">horizontal-compact</t>
+    <t xml:space="preserve">columns</t>
   </si>
   <si>
     <t xml:space="preserve">close_now</t>
@@ -1705,14 +1708,14 @@
   </sheetPr>
   <dimension ref="A1:IZ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G66" activeCellId="0" sqref="G66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="50.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="38.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.91"/>
@@ -2922,42 +2925,46 @@
       <c r="B8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" s="7" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2968,10 +2975,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -3237,13 +3244,13 @@
         <v>23</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -3511,13 +3518,13 @@
         <v>23</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -3783,13 +3790,13 @@
         <v>23</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -4052,7 +4059,7 @@
     </row>
     <row r="14" s="5" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -4062,7 +4069,7 @@
     </row>
     <row r="15" s="5" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -4072,20 +4079,20 @@
     </row>
     <row r="16" s="7" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M16" s="7" t="n">
         <v>0</v>
@@ -4094,20 +4101,20 @@
     </row>
     <row r="17" s="7" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M17" s="7" t="n">
         <v>0</v>
@@ -4116,16 +4123,16 @@
     </row>
     <row r="18" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -4135,7 +4142,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="6"/>
@@ -4388,58 +4395,58 @@
     </row>
     <row r="19" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
       <c r="L19" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
       <c r="L20" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M21" s="7"/>
       <c r="N21" s="6"/>
@@ -4692,16 +4699,16 @@
     </row>
     <row r="22" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -4711,7 +4718,7 @@
       <c r="J22" s="7"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M22" s="7"/>
       <c r="N22" s="6"/>
@@ -4964,81 +4971,81 @@
     </row>
     <row r="23" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -5050,7 +5057,7 @@
       <c r="J27" s="7"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M27" s="7"/>
       <c r="N27" s="6"/>
@@ -5303,10 +5310,10 @@
     </row>
     <row r="28" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -5318,7 +5325,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M28" s="7"/>
       <c r="N28" s="6"/>
@@ -5571,24 +5578,24 @@
     </row>
     <row r="29" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5596,16 +5603,16 @@
         <v>18</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>22</v>
@@ -5613,44 +5620,44 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" s="5" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -5663,16 +5670,16 @@
         <v>18</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>22</v>
@@ -5680,290 +5687,290 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" s="5" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -5976,16 +5983,16 @@
         <v>18</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>22</v>
@@ -5993,151 +6000,151 @@
     </row>
     <row r="49" s="15" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
     </row>
     <row r="50" s="15" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
     </row>
     <row r="51" s="15" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
     </row>
     <row r="52" s="15" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
     </row>
     <row r="53" s="15" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
     </row>
     <row r="54" s="15" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
     </row>
     <row r="55" s="15" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
     </row>
     <row r="56" s="15" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
     </row>
     <row r="57" s="15" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
     </row>
     <row r="58" s="5" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -6150,16 +6157,16 @@
         <v>18</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>22</v>
@@ -6167,103 +6174,103 @@
     </row>
     <row r="60" s="15" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
     </row>
     <row r="61" s="15" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
     </row>
     <row r="62" s="15" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
     </row>
     <row r="63" s="15" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
     </row>
     <row r="64" s="15" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
     </row>
     <row r="65" s="15" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
     </row>
     <row r="66" s="5" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -6276,13 +6283,13 @@
         <v>18</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>22</v>
@@ -6290,63 +6297,63 @@
     </row>
     <row r="68" s="15" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I68" s="14"/>
       <c r="J68" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" s="15" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I69" s="14"/>
       <c r="J69" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" s="5" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -6367,16 +6374,16 @@
         <v>18</v>
       </c>
       <c r="B72" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="H72" s="11" t="s">
         <v>219</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="I72" s="10" t="s">
         <v>22</v>
@@ -6384,31 +6391,31 @@
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I73" s="8"/>
     </row>
     <row r="74" s="5" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -6429,16 +6436,16 @@
         <v>18</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>22</v>
@@ -6446,56 +6453,56 @@
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" s="5" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -6516,12 +6523,16 @@
         <v>18</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
+        <v>239</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="I81" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" s="5" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6529,47 +6540,51 @@
         <v>18</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
+        <v>241</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
     </row>
     <row r="83" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I83" s="16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -6581,229 +6596,233 @@
         <v>18</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
+        <v>249</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="I86" s="10"/>
     </row>
     <row r="87" s="17" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I87" s="17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B90" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I90" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D90" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -6815,86 +6834,90 @@
         <v>18</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
+        <v>275</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="I99" s="10"/>
     </row>
     <row r="100" s="19" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H100" s="19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I100" s="19" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" s="5" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -6907,66 +6930,70 @@
         <v>18</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
+        <v>290</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="I105" s="10"/>
     </row>
     <row r="106" s="20" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H106" s="20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I106" s="20" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" s="5" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -6976,45 +7003,45 @@
     </row>
     <row r="110" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D110" s="24" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E110" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F110" s="21"/>
       <c r="H110" s="21" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K110" s="21"/>
       <c r="L110" s="21"/>
     </row>
     <row r="111" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E111" s="25"/>
       <c r="F111" s="25"/>
       <c r="G111" s="25"/>
       <c r="H111" s="25" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I111" s="25"/>
       <c r="J111" s="25"/>
@@ -7059,69 +7086,73 @@
         <v>18</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
+        <v>311</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="I112" s="10"/>
     </row>
     <row r="113" s="27" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B113" s="27" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C113" s="27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D113" s="27" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H113" s="27" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I113" s="27" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="116" s="5" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -7131,7 +7162,7 @@
     </row>
     <row r="117" s="5" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -7207,7 +7238,7 @@
   <sheetData>
     <row r="1" s="31" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="29" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>1</v>
@@ -7216,7 +7247,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E1" s="30"/>
       <c r="F1" s="30"/>
@@ -7241,16 +7272,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="32" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="34"/>
@@ -7275,16 +7306,16 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="32" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
@@ -7309,86 +7340,86 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="35" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="35" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="28" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="28" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="28" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="28" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -7423,7 +7454,7 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.45"/>
@@ -7433,22 +7464,22 @@
   <sheetData>
     <row r="1" s="41" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="38" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G1" s="40"/>
       <c r="H1" s="40"/>
@@ -7473,19 +7504,19 @@
     </row>
     <row r="2" s="47" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="42" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F2" s="45"/>
       <c r="G2" s="46"/>
